--- a/Code/Results/Cases/Case_2_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.931005469088859</v>
+        <v>1.256894556890018</v>
       </c>
       <c r="C2">
-        <v>0.4958270733615961</v>
+        <v>0.1859536292247697</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03075134538564406</v>
+        <v>0.07533167458814383</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.7336457136510433</v>
+        <v>0.7621162131235195</v>
       </c>
       <c r="H2">
-        <v>0.4652660218348217</v>
+        <v>0.8152598442540153</v>
       </c>
       <c r="I2">
-        <v>0.3974577917803472</v>
+        <v>0.7262029474934337</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3343592508558544</v>
+        <v>0.2344177996685488</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6371611806322832</v>
+        <v>1.162311826403386</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.542308955449641</v>
+        <v>1.148341961563858</v>
       </c>
       <c r="C3">
-        <v>0.4354389432496646</v>
+        <v>0.1670936965257397</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0303457717587694</v>
+        <v>0.07570507704978624</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.6670805870803065</v>
+        <v>0.7535796821256326</v>
       </c>
       <c r="H3">
-        <v>0.4426575544299993</v>
+        <v>0.8170517083399176</v>
       </c>
       <c r="I3">
-        <v>0.3852738437044323</v>
+        <v>0.7307586488425315</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2934652676639189</v>
+        <v>0.2246696686353289</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6723485433945662</v>
+        <v>1.176602397373351</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.305262799204513</v>
+        <v>1.082041398387048</v>
       </c>
       <c r="C4">
-        <v>0.3985201432052747</v>
+        <v>0.1554368486202975</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03014279807108444</v>
+        <v>0.07596398982022112</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.6283499489443045</v>
+        <v>0.7490281239708025</v>
       </c>
       <c r="H4">
-        <v>0.4299893273347806</v>
+        <v>0.8186766823176441</v>
       </c>
       <c r="I4">
-        <v>0.3790819895480482</v>
+        <v>0.7340846179621394</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2687341291593128</v>
+        <v>0.2188154403553</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6951430038425741</v>
+        <v>1.185904803153992</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.209006158721195</v>
+        <v>1.055112359836073</v>
       </c>
       <c r="C5">
-        <v>0.3835042287377064</v>
+        <v>0.1506672408897316</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03007123037127979</v>
+        <v>0.07607696025027177</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6130608577568779</v>
+        <v>0.7473460131434564</v>
       </c>
       <c r="H5">
-        <v>0.4251116290627834</v>
+        <v>0.8194705806767075</v>
       </c>
       <c r="I5">
-        <v>0.3768620082810941</v>
+        <v>0.7355725859923936</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2587410883633936</v>
+        <v>0.2164627653008466</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7047210104666846</v>
+        <v>1.189828336154168</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.193041645245842</v>
+        <v>1.050646207812974</v>
       </c>
       <c r="C6">
-        <v>0.381012269703433</v>
+        <v>0.1498740814282655</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03006000755605776</v>
+        <v>0.07609616977819211</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.6105507075354382</v>
+        <v>0.7470771064800061</v>
       </c>
       <c r="H6">
-        <v>0.4243183141259266</v>
+        <v>0.8196103545509317</v>
       </c>
       <c r="I6">
-        <v>0.3765111108366845</v>
+        <v>0.7358276609709868</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2570866129420182</v>
+        <v>0.2160740964376515</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7063286114205276</v>
+        <v>1.190487851522942</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.303963347496392</v>
+        <v>1.08167786278193</v>
       </c>
       <c r="C7">
-        <v>0.3983175311819025</v>
+        <v>0.1553726024128537</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0301417883110604</v>
+        <v>0.07596548315778229</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6281418114077582</v>
+        <v>0.7490047402929463</v>
       </c>
       <c r="H7">
-        <v>0.4299224182649652</v>
+        <v>0.8186868561586635</v>
       </c>
       <c r="I7">
-        <v>0.379050848946747</v>
+        <v>0.7341041487589308</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2685990276224004</v>
+        <v>0.218783577874035</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6952710184247728</v>
+        <v>1.185957179922767</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.796607358126607</v>
+        <v>1.219393103738696</v>
       </c>
       <c r="C8">
-        <v>0.4749649659942463</v>
+        <v>0.1794666275522161</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03060167679776349</v>
+        <v>0.07545427602702404</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.7102221792801515</v>
+        <v>0.759029142265419</v>
       </c>
       <c r="H8">
-        <v>0.4572060484267553</v>
+        <v>0.815768613269654</v>
       </c>
       <c r="I8">
-        <v>0.3929761972806602</v>
+        <v>0.7276637993815385</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.320174371975213</v>
+        <v>0.2310294101455383</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.649040747531302</v>
+        <v>1.167129625356107</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.77868854916693</v>
+        <v>1.492223789773334</v>
       </c>
       <c r="C9">
-        <v>0.6271023115487253</v>
+        <v>0.2261098953096621</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03188985678066558</v>
+        <v>0.07468669110313897</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.8903264240539812</v>
+        <v>0.7841992762957659</v>
       </c>
       <c r="H9">
-        <v>0.5213329987999771</v>
+        <v>0.8142218554891087</v>
       </c>
       <c r="I9">
-        <v>0.4315283709324689</v>
+        <v>0.7192460246762238</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4247993389476932</v>
+        <v>0.256086290170316</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.568301404506613</v>
+        <v>1.134398828888727</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.514882666655751</v>
+        <v>1.694364019382704</v>
       </c>
       <c r="C10">
-        <v>0.7408643039152309</v>
+        <v>0.2600187314510265</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03310318270857415</v>
+        <v>0.07426557213452512</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.037593346870111</v>
+        <v>0.806108420687778</v>
       </c>
       <c r="H10">
-        <v>0.5764321431400248</v>
+        <v>0.8156494614578236</v>
       </c>
       <c r="I10">
-        <v>0.4682417293533376</v>
+        <v>0.7156524840102065</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5045337271795916</v>
+        <v>0.27513654784984</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5157512376009947</v>
+        <v>1.112907004904017</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.854193779518255</v>
+        <v>1.786692085938341</v>
       </c>
       <c r="C11">
-        <v>0.7932664824379572</v>
+        <v>0.2753686875401797</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0337207178374257</v>
+        <v>0.07410493376704785</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.108642079902154</v>
+        <v>0.8168296879691184</v>
       </c>
       <c r="H11">
-        <v>0.6036047038248569</v>
+        <v>0.8168597328162548</v>
       </c>
       <c r="I11">
-        <v>0.4871430296385668</v>
+        <v>0.714585427558994</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5416119953490721</v>
+        <v>0.2839434634916103</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4934923603754839</v>
+        <v>1.103685076592527</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.98342796825608</v>
+        <v>1.821707712018508</v>
       </c>
       <c r="C12">
-        <v>0.8132236469627969</v>
+        <v>0.2811705825341164</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03396468622572435</v>
+        <v>0.07404854565874963</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.136204562163272</v>
+        <v>0.8209990149046291</v>
       </c>
       <c r="H12">
-        <v>0.6142318937133382</v>
+        <v>0.8173989912404807</v>
       </c>
       <c r="I12">
-        <v>0.4946518613045754</v>
+        <v>0.7142633999801546</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5557853227112446</v>
+        <v>0.2872987248687053</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4853168415328426</v>
+        <v>1.100272817201557</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.955560095548208</v>
+        <v>1.814164124865727</v>
       </c>
       <c r="C13">
-        <v>0.8089201215446167</v>
+        <v>0.2799215204250913</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03391168150198887</v>
+        <v>0.07406049236991841</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.130237962025689</v>
+        <v>0.820096195208265</v>
       </c>
       <c r="H13">
-        <v>0.6119275409213287</v>
+        <v>0.8172792468982948</v>
       </c>
       <c r="I13">
-        <v>0.493018482016204</v>
+        <v>0.714329098852609</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5527266645131164</v>
+        <v>0.286575207322457</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4870660318045097</v>
+        <v>1.101004153702661</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.864810365450751</v>
+        <v>1.789571784592624</v>
       </c>
       <c r="C14">
-        <v>0.7949059718124261</v>
+        <v>0.2758462291862145</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03374058225596244</v>
+        <v>0.07410020568815412</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.110896023504438</v>
+        <v>0.8171705030274552</v>
       </c>
       <c r="H14">
-        <v>0.6044720349154602</v>
+        <v>0.8169024737127586</v>
       </c>
       <c r="I14">
-        <v>0.4877535324791253</v>
+        <v>0.7145572875013002</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5427752854041472</v>
+        <v>0.2842190964432234</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4928145751857045</v>
+        <v>1.103402746334588</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.809323932628615</v>
+        <v>1.774515146128351</v>
       </c>
       <c r="C15">
-        <v>0.7863373225827957</v>
+        <v>0.2733485901559618</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03363711859355512</v>
+        <v>0.07412510957568408</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.099136541599023</v>
+        <v>0.8153927077897265</v>
       </c>
       <c r="H15">
-        <v>0.599950359631606</v>
+        <v>0.8166822411001817</v>
       </c>
       <c r="I15">
-        <v>0.4845754459758354</v>
+        <v>0.7147077564585445</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.536697565525273</v>
+        <v>0.2827785512775307</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4963692503725383</v>
+        <v>1.104882360109244</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.492805829261499</v>
+        <v>1.688337616969818</v>
       </c>
       <c r="C16">
-        <v>0.7374544606260258</v>
+        <v>0.259014062496334</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03306420276708444</v>
+        <v>0.07427669215076094</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.033037977465412</v>
+        <v>0.8054230231206958</v>
       </c>
       <c r="H16">
-        <v>0.5747016324667129</v>
+        <v>0.8155816791319239</v>
       </c>
       <c r="I16">
-        <v>0.4670536686139002</v>
+        <v>0.7157336768583846</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5021281901421162</v>
+        <v>0.2745638311671428</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5172404290014683</v>
+        <v>1.113520852530201</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.299837239991234</v>
+        <v>1.635565636474553</v>
       </c>
       <c r="C17">
-        <v>0.7076467522353482</v>
+        <v>0.2502010205912484</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03273000866933806</v>
+        <v>0.07437760121353598</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.9935783618820722</v>
+        <v>0.7995008721017172</v>
       </c>
       <c r="H17">
-        <v>0.5597756481505485</v>
+        <v>0.815050383075544</v>
       </c>
       <c r="I17">
-        <v>0.4568919655570625</v>
+        <v>0.7165087320657051</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.481138924846789</v>
+        <v>0.2695604562684224</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5304773045730258</v>
+        <v>1.118962459873757</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.189254961945608</v>
+        <v>1.60524778299316</v>
       </c>
       <c r="C18">
-        <v>0.6905621351434945</v>
+        <v>0.2451248981806202</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03254391781899812</v>
+        <v>0.07443855312061309</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.9712591535398332</v>
+        <v>0.796165588668444</v>
       </c>
       <c r="H18">
-        <v>0.551386749085097</v>
+        <v>0.8147975666764609</v>
       </c>
       <c r="I18">
-        <v>0.451252036092626</v>
+        <v>0.7170079295618521</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4691413017040844</v>
+        <v>0.2666959044121455</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5382446916700445</v>
+        <v>1.122144543247842</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.151880629831851</v>
+        <v>1.594988745212788</v>
       </c>
       <c r="C19">
-        <v>0.6847873066849672</v>
+        <v>0.2434049909644784</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03248194319156639</v>
+        <v>0.07445969064679048</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.9637648341994804</v>
+        <v>0.7950484829585349</v>
       </c>
       <c r="H19">
-        <v>0.5485791026341218</v>
+        <v>0.8147210215910974</v>
       </c>
       <c r="I19">
-        <v>0.449376619457226</v>
+        <v>0.7171861092469598</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4650914877171743</v>
+        <v>0.2657282927410449</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5409005423524746</v>
+        <v>1.123230906885205</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.320336072238149</v>
+        <v>1.641179666642529</v>
       </c>
       <c r="C20">
-        <v>0.7108134873430174</v>
+        <v>0.2511399178900149</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03276494508627792</v>
+        <v>0.07436655796466418</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.9977393785756306</v>
+        <v>0.8001239424429514</v>
       </c>
       <c r="H20">
-        <v>0.5613440069017344</v>
+        <v>0.8151014766298772</v>
       </c>
       <c r="I20">
-        <v>0.4579522564190484</v>
+        <v>0.716420695771923</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4833654064317585</v>
+        <v>0.2700917018848088</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5290521740216292</v>
+        <v>1.11837778671368</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.891444626337204</v>
+        <v>1.796793718518643</v>
       </c>
       <c r="C21">
-        <v>0.799019014663827</v>
+        <v>0.2770435338468928</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03379055777192441</v>
+        <v>0.07408842040972452</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>1.11655873395037</v>
+        <v>0.8180268730999387</v>
       </c>
       <c r="H21">
-        <v>0.6066524456020375</v>
+        <v>0.8170109415860054</v>
       </c>
       <c r="I21">
-        <v>0.489290145658579</v>
+        <v>0.7144880330135877</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5456945079313584</v>
+        <v>0.2849105929511211</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.491119069785185</v>
+        <v>1.102696052630563</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.269095441351737</v>
+        <v>1.898805046760003</v>
       </c>
       <c r="C22">
-        <v>0.8573394123189644</v>
+        <v>0.2939101090444467</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03452021325458432</v>
+        <v>0.0739325311560517</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.19808875736706</v>
+        <v>0.8303656482892166</v>
       </c>
       <c r="H22">
-        <v>0.6382500640309559</v>
+        <v>0.818730898365061</v>
       </c>
       <c r="I22">
-        <v>0.51183778159713</v>
+        <v>0.7137033324797954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5872119217899723</v>
+        <v>0.2947137740146246</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4678137083916951</v>
+        <v>1.092912814599323</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.067094375131717</v>
+        <v>1.844331681258893</v>
       </c>
       <c r="C23">
-        <v>0.8261439749463761</v>
+        <v>0.2849138473928008</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0341251073759512</v>
+        <v>0.07401336511859036</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.154193483322899</v>
+        <v>0.8237215229032699</v>
       </c>
       <c r="H23">
-        <v>0.6211918051740213</v>
+        <v>0.8177696342916363</v>
       </c>
       <c r="I23">
-        <v>0.4996021414622831</v>
+        <v>0.7140782302947812</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5649758551754758</v>
+        <v>0.2894708120406193</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4801103099799064</v>
+        <v>1.098091667115064</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.311067443462662</v>
+        <v>1.638641496702064</v>
       </c>
       <c r="C24">
-        <v>0.7093816451917689</v>
+        <v>0.2507154716693378</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03274913156476345</v>
+        <v>0.0743715414659345</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.9958570464411451</v>
+        <v>0.7998420361046783</v>
       </c>
       <c r="H24">
-        <v>0.5606343556621454</v>
+        <v>0.8150782132999694</v>
       </c>
       <c r="I24">
-        <v>0.4574722718079798</v>
+        <v>0.7164603300195296</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4823585992225219</v>
+        <v>0.2698514885070722</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5296959867350708</v>
+        <v>1.118641950390007</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.510816020893117</v>
+        <v>1.418118991434596</v>
       </c>
       <c r="C25">
-        <v>0.5856641448649498</v>
+        <v>0.2135555167519954</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03149691306297342</v>
+        <v>0.07486923506585264</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.8392331431809197</v>
+        <v>0.7767941610114519</v>
       </c>
       <c r="H25">
-        <v>0.5026998269185441</v>
+        <v>0.8141913562661074</v>
       </c>
       <c r="I25">
-        <v>0.4197447300028614</v>
+        <v>0.7210699485807908</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3960495890962648</v>
+        <v>0.2491955609159362</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5890109018481269</v>
+        <v>1.142804713412488</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.256894556890018</v>
+        <v>2.931005469088859</v>
       </c>
       <c r="C2">
-        <v>0.1859536292247697</v>
+        <v>0.4958270733618235</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07533167458814383</v>
+        <v>0.0307513453856334</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7621162131235195</v>
+        <v>0.7336457136511001</v>
       </c>
       <c r="H2">
-        <v>0.8152598442540153</v>
+        <v>0.4652660218348075</v>
       </c>
       <c r="I2">
-        <v>0.7262029474934337</v>
+        <v>0.3974577917803401</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2344177996685488</v>
+        <v>0.3343592508560249</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.162311826403386</v>
+        <v>0.6371611806322832</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.148341961563858</v>
+        <v>2.542308955449698</v>
       </c>
       <c r="C3">
-        <v>0.1670936965257397</v>
+        <v>0.4354389432496362</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07570507704978624</v>
+        <v>0.03034577175874986</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.7535796821256326</v>
+        <v>0.6670805870803065</v>
       </c>
       <c r="H3">
-        <v>0.8170517083399176</v>
+        <v>0.4426575544300988</v>
       </c>
       <c r="I3">
-        <v>0.7307586488425315</v>
+        <v>0.3852738437044181</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2246696686353289</v>
+        <v>0.2934652676638052</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.176602397373351</v>
+        <v>0.6723485433944845</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.082041398387048</v>
+        <v>2.305262799204627</v>
       </c>
       <c r="C4">
-        <v>0.1554368486202975</v>
+        <v>0.3985201432052463</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07596398982022112</v>
+        <v>0.03014279807109244</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7490281239708025</v>
+        <v>0.6283499489442335</v>
       </c>
       <c r="H4">
-        <v>0.8186766823176441</v>
+        <v>0.4299893273347806</v>
       </c>
       <c r="I4">
-        <v>0.7340846179621394</v>
+        <v>0.3790819895480624</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2188154403553</v>
+        <v>0.2687341291593413</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.185904803153992</v>
+        <v>0.6951430038425741</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.055112359836073</v>
+        <v>2.209006158721195</v>
       </c>
       <c r="C5">
-        <v>0.1506672408897316</v>
+        <v>0.3835042287379622</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07607696025027177</v>
+        <v>0.03007123037128157</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.7473460131434564</v>
+        <v>0.6130608577568495</v>
       </c>
       <c r="H5">
-        <v>0.8194705806767075</v>
+        <v>0.4251116290628971</v>
       </c>
       <c r="I5">
-        <v>0.7355725859923936</v>
+        <v>0.3768620082811012</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2164627653008466</v>
+        <v>0.2587410883633794</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.189828336154168</v>
+        <v>0.7047210104666952</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.050646207812974</v>
+        <v>2.193041645245842</v>
       </c>
       <c r="C6">
-        <v>0.1498740814282655</v>
+        <v>0.3810122697034046</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07609616977819211</v>
+        <v>0.0300600075560693</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7470771064800061</v>
+        <v>0.6105507075353671</v>
       </c>
       <c r="H6">
-        <v>0.8196103545509317</v>
+        <v>0.4243183141258129</v>
       </c>
       <c r="I6">
-        <v>0.7358276609709868</v>
+        <v>0.3765111108366881</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2160740964376515</v>
+        <v>0.2570866129420182</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.190487851522942</v>
+        <v>0.7063286114205063</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.08167786278193</v>
+        <v>2.303963347496392</v>
       </c>
       <c r="C7">
-        <v>0.1553726024128537</v>
+        <v>0.3983175311815899</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07596548315778229</v>
+        <v>0.03014178831107195</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7490047402929463</v>
+        <v>0.6281418114078008</v>
       </c>
       <c r="H7">
-        <v>0.8186868561586635</v>
+        <v>0.429922418264951</v>
       </c>
       <c r="I7">
-        <v>0.7341041487589308</v>
+        <v>0.3790508489467399</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.218783577874035</v>
+        <v>0.2685990276224288</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.185957179922767</v>
+        <v>0.6952710184248438</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.219393103738696</v>
+        <v>2.796607358126607</v>
       </c>
       <c r="C8">
-        <v>0.1794666275522161</v>
+        <v>0.4749649659942179</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07545427602702404</v>
+        <v>0.03060167679776349</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.759029142265419</v>
+        <v>0.7102221792801515</v>
       </c>
       <c r="H8">
-        <v>0.815768613269654</v>
+        <v>0.4572060484267553</v>
       </c>
       <c r="I8">
-        <v>0.7276637993815385</v>
+        <v>0.3929761972806816</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2310294101455383</v>
+        <v>0.3201743719752557</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.167129625356107</v>
+        <v>0.6490407475312381</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.492223789773334</v>
+        <v>3.7786885491671</v>
       </c>
       <c r="C9">
-        <v>0.2261098953096621</v>
+        <v>0.6271023115487253</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07468669110313897</v>
+        <v>0.03188985678067979</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.7841992762957659</v>
+        <v>0.890326424053967</v>
       </c>
       <c r="H9">
-        <v>0.8142218554891087</v>
+        <v>0.521332998800105</v>
       </c>
       <c r="I9">
-        <v>0.7192460246762238</v>
+        <v>0.431528370932476</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.256086290170316</v>
+        <v>0.4247993389477216</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.134398828888727</v>
+        <v>0.5683014045066059</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.694364019382704</v>
+        <v>4.514882666655751</v>
       </c>
       <c r="C10">
-        <v>0.2600187314510265</v>
+        <v>0.7408643039154015</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07426557213452512</v>
+        <v>0.03310318270857593</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.806108420687778</v>
+        <v>1.037593346870153</v>
       </c>
       <c r="H10">
-        <v>0.8156494614578236</v>
+        <v>0.5764321431400106</v>
       </c>
       <c r="I10">
-        <v>0.7156524840102065</v>
+        <v>0.4682417293533589</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.27513654784984</v>
+        <v>0.5045337271795916</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.112907004904017</v>
+        <v>0.5157512376009947</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.786692085938341</v>
+        <v>4.854193779518198</v>
       </c>
       <c r="C11">
-        <v>0.2753686875401797</v>
+        <v>0.7932664824380709</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07410493376704785</v>
+        <v>0.03372071783739017</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.8168296879691184</v>
+        <v>1.108642079902239</v>
       </c>
       <c r="H11">
-        <v>0.8168597328162548</v>
+        <v>0.6036047038249706</v>
       </c>
       <c r="I11">
-        <v>0.714585427558994</v>
+        <v>0.4871430296385668</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2839434634916103</v>
+        <v>0.5416119953491716</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.103685076592527</v>
+        <v>0.4934923603754697</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.821707712018508</v>
+        <v>4.98342796825608</v>
       </c>
       <c r="C12">
-        <v>0.2811705825341164</v>
+        <v>0.8132236469627969</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07404854565874963</v>
+        <v>0.03396468622570126</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.8209990149046291</v>
+        <v>1.136204562163385</v>
       </c>
       <c r="H12">
-        <v>0.8173989912404807</v>
+        <v>0.6142318937133382</v>
       </c>
       <c r="I12">
-        <v>0.7142633999801546</v>
+        <v>0.4946518613045612</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2872987248687053</v>
+        <v>0.5557853227112446</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.100272817201557</v>
+        <v>0.4853168415327787</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.814164124865727</v>
+        <v>4.955560095548265</v>
       </c>
       <c r="C13">
-        <v>0.2799215204250913</v>
+        <v>0.8089201215444461</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07406049236991841</v>
+        <v>0.0339116815019711</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.820096195208265</v>
+        <v>1.130237962025575</v>
       </c>
       <c r="H13">
-        <v>0.8172792468982948</v>
+        <v>0.6119275409213287</v>
       </c>
       <c r="I13">
-        <v>0.714329098852609</v>
+        <v>0.4930184820161969</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.286575207322457</v>
+        <v>0.5527266645130595</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.101004153702661</v>
+        <v>0.4870660318045097</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.789571784592624</v>
+        <v>4.864810365450808</v>
       </c>
       <c r="C14">
-        <v>0.2758462291862145</v>
+        <v>0.7949059718124261</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07410020568815412</v>
+        <v>0.0337405822559802</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.8171705030274552</v>
+        <v>1.110896023504381</v>
       </c>
       <c r="H14">
-        <v>0.8169024737127586</v>
+        <v>0.6044720349154318</v>
       </c>
       <c r="I14">
-        <v>0.7145572875013002</v>
+        <v>0.4877535324791324</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2842190964432234</v>
+        <v>0.5427752854041046</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.103402746334588</v>
+        <v>0.4928145751857187</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.774515146128351</v>
+        <v>4.809323932628615</v>
       </c>
       <c r="C15">
-        <v>0.2733485901559618</v>
+        <v>0.786337322583023</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07412510957568408</v>
+        <v>0.03363711859353735</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.8153927077897265</v>
+        <v>1.099136541599023</v>
       </c>
       <c r="H15">
-        <v>0.8166822411001817</v>
+        <v>0.5999503596314923</v>
       </c>
       <c r="I15">
-        <v>0.7147077564585445</v>
+        <v>0.4845754459758282</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2827785512775307</v>
+        <v>0.5366975655253015</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.104882360109244</v>
+        <v>0.4963692503725525</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.688337616969818</v>
+        <v>4.492805829261499</v>
       </c>
       <c r="C16">
-        <v>0.259014062496334</v>
+        <v>0.7374544606260542</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07427669215076094</v>
+        <v>0.03306420276704536</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.8054230231206958</v>
+        <v>1.033037977465412</v>
       </c>
       <c r="H16">
-        <v>0.8155816791319239</v>
+        <v>0.5747016324666987</v>
       </c>
       <c r="I16">
-        <v>0.7157336768583846</v>
+        <v>0.4670536686139144</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2745638311671428</v>
+        <v>0.5021281901421588</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.113520852530201</v>
+        <v>0.5172404290015322</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.635565636474553</v>
+        <v>4.29983723999112</v>
       </c>
       <c r="C17">
-        <v>0.2502010205912484</v>
+        <v>0.7076467522352914</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07437760121353598</v>
+        <v>0.03273000866933273</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.7995008721017172</v>
+        <v>0.9935783618821148</v>
       </c>
       <c r="H17">
-        <v>0.815050383075544</v>
+        <v>0.5597756481505485</v>
       </c>
       <c r="I17">
-        <v>0.7165087320657051</v>
+        <v>0.4568919655570909</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2695604562684224</v>
+        <v>0.48113892484686</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.118962459873757</v>
+        <v>0.5304773045730329</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.60524778299316</v>
+        <v>4.189254961945721</v>
       </c>
       <c r="C18">
-        <v>0.2451248981806202</v>
+        <v>0.6905621351437219</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07443855312061309</v>
+        <v>0.03254391781903898</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.796165588668444</v>
+        <v>0.9712591535398332</v>
       </c>
       <c r="H18">
-        <v>0.8147975666764609</v>
+        <v>0.551386749085097</v>
       </c>
       <c r="I18">
-        <v>0.7170079295618521</v>
+        <v>0.451252036092626</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2666959044121455</v>
+        <v>0.4691413017041981</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.122144543247842</v>
+        <v>0.5382446916700161</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.594988745212788</v>
+        <v>4.151880629831908</v>
       </c>
       <c r="C19">
-        <v>0.2434049909644784</v>
+        <v>0.6847873066848535</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07445969064679048</v>
+        <v>0.03248194319155751</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.7950484829585349</v>
+        <v>0.9637648341994662</v>
       </c>
       <c r="H19">
-        <v>0.8147210215910974</v>
+        <v>0.5485791026339939</v>
       </c>
       <c r="I19">
-        <v>0.7171861092469598</v>
+        <v>0.4493766194572473</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2657282927410449</v>
+        <v>0.4650914877172028</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.123230906885205</v>
+        <v>0.5409005423524249</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.641179666642529</v>
+        <v>4.320336072238263</v>
       </c>
       <c r="C20">
-        <v>0.2511399178900149</v>
+        <v>0.7108134873428469</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07436655796466418</v>
+        <v>0.03276494508626904</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.8001239424429514</v>
+        <v>0.9977393785756448</v>
       </c>
       <c r="H20">
-        <v>0.8151014766298772</v>
+        <v>0.5613440069016349</v>
       </c>
       <c r="I20">
-        <v>0.716420695771923</v>
+        <v>0.4579522564190484</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2700917018848088</v>
+        <v>0.4833654064317869</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.11837778671368</v>
+        <v>0.529052174021686</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.796793718518643</v>
+        <v>4.891444626337204</v>
       </c>
       <c r="C21">
-        <v>0.2770435338468928</v>
+        <v>0.799019014663827</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07408842040972452</v>
+        <v>0.03379055777194928</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8180268730999387</v>
+        <v>1.116558733950342</v>
       </c>
       <c r="H21">
-        <v>0.8170109415860054</v>
+        <v>0.6066524456020375</v>
       </c>
       <c r="I21">
-        <v>0.7144880330135877</v>
+        <v>0.4892901456586003</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2849105929511211</v>
+        <v>0.5456945079313726</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.102696052630563</v>
+        <v>0.491119069785185</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.898805046760003</v>
+        <v>5.269095441351624</v>
       </c>
       <c r="C22">
-        <v>0.2939101090444467</v>
+        <v>0.8573394123191065</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0739325311560517</v>
+        <v>0.03452021325456833</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.8303656482892166</v>
+        <v>1.198088757367003</v>
       </c>
       <c r="H22">
-        <v>0.818730898365061</v>
+        <v>0.6382500640309843</v>
       </c>
       <c r="I22">
-        <v>0.7137033324797954</v>
+        <v>0.51183778159713</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2947137740146246</v>
+        <v>0.5872119217899439</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.092912814599323</v>
+        <v>0.4678137083916951</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.844331681258893</v>
+        <v>5.06709437513183</v>
       </c>
       <c r="C23">
-        <v>0.2849138473928008</v>
+        <v>0.8261439749462909</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07401336511859036</v>
+        <v>0.03412510737596897</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.8237215229032699</v>
+        <v>1.154193483322899</v>
       </c>
       <c r="H23">
-        <v>0.8177696342916363</v>
+        <v>0.621191805174135</v>
       </c>
       <c r="I23">
-        <v>0.7140782302947812</v>
+        <v>0.4996021414622547</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2894708120406193</v>
+        <v>0.5649758551754474</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.098091667115064</v>
+        <v>0.4801103099798851</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.638641496702064</v>
+        <v>4.311067443462719</v>
       </c>
       <c r="C24">
-        <v>0.2507154716693378</v>
+        <v>0.7093816451915131</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0743715414659345</v>
+        <v>0.0327491315647741</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7998420361046783</v>
+        <v>0.9958570464412162</v>
       </c>
       <c r="H24">
-        <v>0.8150782132999694</v>
+        <v>0.5606343556622591</v>
       </c>
       <c r="I24">
-        <v>0.7164603300195296</v>
+        <v>0.4574722718079869</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2698514885070722</v>
+        <v>0.482358599222465</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.118641950390007</v>
+        <v>0.5296959867350566</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.418118991434596</v>
+        <v>3.51081602089306</v>
       </c>
       <c r="C25">
-        <v>0.2135555167519954</v>
+        <v>0.5856641448649214</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07486923506585264</v>
+        <v>0.03149691306298408</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7767941610114519</v>
+        <v>0.8392331431809055</v>
       </c>
       <c r="H25">
-        <v>0.8141913562661074</v>
+        <v>0.5026998269185299</v>
       </c>
       <c r="I25">
-        <v>0.7210699485807908</v>
+        <v>0.4197447300028614</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2491955609159362</v>
+        <v>0.3960495890962079</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.142804713412488</v>
+        <v>0.5890109018481127</v>
       </c>
       <c r="O25">
         <v>0</v>
